--- a/biology/Zoologie/Refuge_faunique_national_Becharof/Refuge_faunique_national_Becharof.xlsx
+++ b/biology/Zoologie/Refuge_faunique_national_Becharof/Refuge_faunique_national_Becharof.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Refuge faunique national Becharof (en anglais : Becharof National Wildlife Refuge) est une réserve faunique située en Alaska aux États-Unis, dans la chaîne aléoutienne. Son statut a été établi en 1980 par l'Alaska National Interest Lands Conservation Act.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'une superficie de 4 856,46 km2[2], le parc a été établi en 1980 pour la sauvegarde des ours bruns et autres mammifères, des saumons, des oiseaux migrateurs et maritimes. Il s'étend sur toute la partie centrale et orientale du Borough de Lake and Peninsula, mais a été étendu sur la partie est du Borough de l'île Kodiak. Son administration se trouve à King Salmon.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une superficie de 4 856,46 km2, le parc a été établi en 1980 pour la sauvegarde des ours bruns et autres mammifères, des saumons, des oiseaux migrateurs et maritimes. Il s'étend sur toute la partie centrale et orientale du Borough de Lake and Peninsula, mais a été étendu sur la partie est du Borough de l'île Kodiak. Son administration se trouve à King Salmon.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est le président Jimmy Carter qui, le 1er décembre 1978 a créé officiellement le Becharof National Monument. Le refuge a été établi le 2 décembre 1980 par l'Alaska National Interest Land Conservation Act[1].
-En 1989, la zone du refuge a été gravement touchée par la marée noire de l'Exxon Valdez[3].
-D'importantes études ont été effectuées de 1995 à 1998 et en 2001-2003 pour l'étude de l'activité des oiseaux de mer, ainsi que du décompte des populations de caribous et d'élans, sous l'égide de l'université d'Alaska à Fairbanks[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le président Jimmy Carter qui, le 1er décembre 1978 a créé officiellement le Becharof National Monument. Le refuge a été établi le 2 décembre 1980 par l'Alaska National Interest Land Conservation Act.
+En 1989, la zone du refuge a été gravement touchée par la marée noire de l'Exxon Valdez.
+D'importantes études ont été effectuées de 1995 à 1998 et en 2001-2003 pour l'étude de l'activité des oiseaux de mer, ainsi que du décompte des populations de caribous et d'élans, sous l'égide de l'université d'Alaska à Fairbanks.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le refuge Becharof est situé dans une région montagneuse côtière où se trouve le volcan Ugashik-Peulik. C'est une zone de falaises et de larges vallées, de fjords et de lacs glaciaires. Le lac Becharof se trouve à l'intérieur du parc, et contient une très importante population de saumons.
 Le bassin de la rivière Naknek représente une importante zone de nidification pour de nombreux oiseaux dont l'activité est surveillée en permanence par des scientifiques.
@@ -609,10 +627,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mammifères
-Le refuge faunique héberge une forte concentration de différents mammifères terrestres ou aquatiques[1],[4] : Ours noir, glouton, castor, caribou, élan, renard, loutre, blaireau d'Amérique, ainsi que des pinnipèdes, lions de mer et baleines.
-Oiseaux
-Le refuge héberge de nombreux oiseaux aquatiques et terrestres qui y vivent tout au long de l'année ou qui viennent y nicher[3] : harle bièvre, garrot à œil d'or, sarcelle à ailes vertes, bernache du Canada, fuligule milouinan, cygne siffleur, oie rieuse, canard colvert, canard pilet, canard souchet, macreuse à bec jaune, harelde kakawi.
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le refuge faunique héberge une forte concentration de différents mammifères terrestres ou aquatiques, : Ours noir, glouton, castor, caribou, élan, renard, loutre, blaireau d'Amérique, ainsi que des pinnipèdes, lions de mer et baleines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Refuge_faunique_national_Becharof</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Refuge_faunique_national_Becharof</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le refuge héberge de nombreux oiseaux aquatiques et terrestres qui y vivent tout au long de l'année ou qui viennent y nicher : harle bièvre, garrot à œil d'or, sarcelle à ailes vertes, bernache du Canada, fuligule milouinan, cygne siffleur, oie rieuse, canard colvert, canard pilet, canard souchet, macreuse à bec jaune, harelde kakawi.
 Durant l'hiver, on peut aussi y observer :  
 Le lagopède des saules
 Le mésangeai du Canada
@@ -620,35 +678,37 @@
 Le grand Corbeau
 Le paridae
 La pie-grièche grise et
-Le sizerin flammé [5]</t>
+Le sizerin flammé </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Refuge_faunique_national_Becharof</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Refuge_faunique_national_Becharof</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Photos du refuge</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Dry bay
